--- a/0_1_Output_Data/5_ifo_qoq_error_series_matched_to_ifoCAST_since_2021/ifo_qoq_matched_errors_first_since_2021.xlsx
+++ b/0_1_Output_Data/5_ifo_qoq_error_series_matched_to_ifoCAST_since_2021/ifo_qoq_matched_errors_first_since_2021.xlsx
@@ -823,6 +823,9 @@
       <c r="I12">
         <v>0.535526637811788</v>
       </c>
+      <c r="J12">
+        <v>0.2150495036779461</v>
+      </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
@@ -849,6 +852,9 @@
       <c r="H13">
         <v>0.5766911554241068</v>
       </c>
+      <c r="I13">
+        <v>0.24</v>
+      </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="1" t="s">
@@ -872,6 +878,9 @@
       <c r="G14">
         <v>0.6272238950261231</v>
       </c>
+      <c r="H14">
+        <v>0.3087982760018804</v>
+      </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="1" t="s">
@@ -892,6 +901,9 @@
       <c r="F15">
         <v>0.6666911554241067</v>
       </c>
+      <c r="G15">
+        <v>0.32</v>
+      </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
@@ -909,8 +921,11 @@
       <c r="E16">
         <v>0.6966911554241066</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="F16">
+        <v>0.4476495795507702</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" s="1" t="s">
         <v>25</v>
       </c>
@@ -923,8 +938,11 @@
       <c r="D17">
         <v>0.4271648845785767</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0.1088966743764388</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" s="1" t="s">
         <v>26</v>
       </c>
@@ -934,18 +952,27 @@
       <c r="C18">
         <v>0.4775315349050862</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="D18">
+        <v>0.1461563307127136</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B19">
         <v>0.32386998960715</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="C19">
+        <v>0.09547648014918764</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" s="1" t="s">
         <v>28</v>
+      </c>
+      <c r="B20">
+        <v>0.0959495356205764</v>
       </c>
     </row>
   </sheetData>
